--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WA_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,19 +885,19 @@
     <t>H</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 1 (Rekenen) + vaardigheden</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 1 (Rekenen) + hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiÃ«le groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiële groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
   </si>
   <si>
     <t>eindJaar</t>
@@ -936,13 +936,25 @@
     <t>groep</t>
   </si>
   <si>
+    <t>Bij een tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
+  </si>
+  <si>
     <t>mavo?</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
   </si>
   <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiÃ«le formules) + H3 (Allerlei formules) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiële formules) + H3 (Allerlei formules) + vaardigheden</t>
   </si>
   <si>
     <t>A</t>
@@ -960,13 +972,13 @@
     <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
   </si>
   <si>
-    <t>Hoofdstuk 1 (Systematisch tellen) + Vaardigheden</t>
+    <t>Hoofdstuk 1 (Systematisch tellen) + Hoofdstuk 2(verbanden) + Vaardigheden</t>
   </si>
   <si>
     <t>Hoofdstuk 4 (Machtsfuncties) + Vaardigheden</t>
   </si>
   <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (ExponentiÃ«le functies) + Vaardigheden</t>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
   </si>
   <si>
     <t>Hoofdstuk 3 (Statistiek) + Hoofdstuk 7 (Kansen) + Vaardigheden</t>
@@ -975,7 +987,13 @@
     <t>Hoofdstuk 6 (Veranderingen) + Hoofdstuk 8A (De afgeleiden) + Vaardigheden</t>
   </si>
   <si>
-    <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5. H1 Formules herleiden; H5 Logaritmische en exponentiÃ«le functies en Vaardigheden</t>
+    <t>bij tt vervangt de grafiesche rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekiningen, stelcils en extra opgaven die gegeven zijn in de les behoren ook tot de stof van tt.</t>
+  </si>
+  <si>
+    <t>Hoofdstuk 1 (Systematisch tellen) + Vaardigheden</t>
+  </si>
+  <si>
+    <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5. H1 Formules herleiden; H5 Logaritmische en exponentiële functies en Vaardigheden</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H2 Statistiek; H4 Toevalsvariabelen; H7 Binomiale verdeling, Vaardigheden</t>
@@ -1002,19 +1020,22 @@
     <t>A1, A2, A3, E1 t/m E7, F</t>
   </si>
   <si>
+    <t>bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 1 en 2. Vaardigheden.  Moderne wiskunde 11e editie wiskunde A deel vwo 5 hoofdstuk 6. Normale verdelingen en hypothese toetsen. Rijen. Vaardigheden. Onderzoeksopdrachten.               </t>
   </si>
   <si>
     <t>A1, A2, A3, E, Rekenen</t>
   </si>
   <si>
-    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. DifferentiÃ«ren. SinusoÃ¯den. Vaardigheden.                                                                 </t>
+    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. Differentiëren. Sinusoïden. Vaardigheden.                                                                 </t>
   </si>
   <si>
     <t>A1, A2, A3, Rekenen</t>
   </si>
   <si>
-    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  ExponentiÃ«le en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
+    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  Exponentiële en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2262,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2414,7 +2435,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2459,7 +2480,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2475,7 +2496,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2510,7 +2531,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2555,7 +2576,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2606,7 +2627,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2651,7 +2672,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2667,7 +2688,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2705,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>70</v>
@@ -2777,7 +2798,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>749</v>
@@ -2804,7 +2825,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2849,7 +2870,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -2865,7 +2886,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -2881,7 +2902,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>74</v>
@@ -3039,7 +3060,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -3063,7 +3086,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4533,7 +4556,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4689,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4706,7 +4729,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4751,7 +4774,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4767,7 +4790,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4785,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4802,7 +4825,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4847,7 +4870,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4863,7 +4886,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4898,7 +4921,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4943,7 +4966,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4959,7 +4982,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4997,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>70</v>
@@ -5069,7 +5092,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>339</v>
@@ -5096,7 +5119,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5141,7 +5164,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -5157,7 +5180,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5332,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5357,7 +5380,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5463,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5480,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5555,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5572,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5647,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5664,10 +5687,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6025,7 +6048,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -7357,7 +7382,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7623,7 +7648,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7729,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7746,10 +7771,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7821,7 +7846,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7838,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7913,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7930,10 +7955,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8292,7 +8317,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9125,7 +9150,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9271,7 +9296,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>760</v>
@@ -9281,10 +9306,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>7</v>
@@ -9298,7 +9323,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9343,7 +9368,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9359,7 +9384,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9377,24 +9402,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I7" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9439,7 +9464,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9455,7 +9480,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9473,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9490,7 +9515,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9535,7 +9560,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9551,7 +9576,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9570,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9587,7 +9612,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9632,7 +9657,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9648,7 +9673,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9657,7 +9682,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>764</v>
@@ -9667,7 +9692,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -9684,7 +9709,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9729,7 +9754,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -9745,7 +9770,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -9764,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -9781,7 +9806,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9826,7 +9851,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -9842,7 +9867,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -9915,7 +9940,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>97</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -9939,7 +9966,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11411,7 +11438,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11557,7 +11584,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>344</v>
@@ -11567,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11584,7 +11611,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11629,7 +11656,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11645,7 +11672,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11663,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11680,7 +11707,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11725,7 +11752,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11741,7 +11768,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11759,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11776,7 +11803,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11821,7 +11848,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11837,7 +11864,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11856,7 +11883,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11873,7 +11900,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11918,7 +11945,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11934,7 +11961,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11943,7 +11970,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2">
         <v>348</v>
@@ -11953,7 +11980,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -11970,7 +11997,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12015,7 +12042,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -12031,7 +12058,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12050,7 +12077,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12067,7 +12094,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12112,7 +12139,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12128,7 +12155,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -12202,7 +12229,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12227,7 +12254,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12333,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12350,7 +12377,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12395,7 +12422,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -12411,7 +12438,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -12423,7 +12450,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12442,10 +12469,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12517,7 +12544,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12534,7 +12561,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12579,7 +12606,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -12595,7 +12622,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -12607,7 +12634,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12624,7 +12651,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12669,7 +12696,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -12685,7 +12712,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -12697,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -12717,7 +12744,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12789,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -12809,7 +12836,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -12921,7 +12948,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -13755,7 +13784,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13901,7 +13930,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14255,7 +14284,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14521,7 +14550,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14627,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14644,7 +14673,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14689,7 +14718,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -14705,7 +14734,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14717,7 +14746,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14736,10 +14765,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14811,7 +14840,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14828,7 +14857,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14873,7 +14902,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -14889,7 +14918,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -14901,7 +14930,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14918,7 +14947,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -14963,7 +14992,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -14979,7 +15008,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -14991,7 +15020,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -15011,7 +15040,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15083,7 +15112,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -15103,7 +15132,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -15216,7 +15245,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15340,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15354,13 +15383,13 @@
         <v>8</v>
       </c>
       <c r="N30" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15432,7 +15461,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15449,10 +15478,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15524,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15541,10 +15570,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15872,7 +15901,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16227,7 +16258,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16581,7 +16612,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602280093</v>
+        <v>44385.633333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16847,7 +16878,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17608,7 +17639,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17625,10 +17656,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17700,7 +17731,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17717,10 +17748,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17792,7 +17823,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17809,10 +17840,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18141,7 +18172,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WA_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 1 (Rekenen) + vaardigheden</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -943,9 +946,6 @@
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2597,7 +2597,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>206</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2693,7 +2693,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -2729,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2794,11 +2794,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2">
         <v>749</v>
@@ -2808,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2891,7 +2891,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
@@ -2927,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3054,14 +3054,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4795,7 +4795,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>104</v>
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4987,7 +4987,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -5023,7 +5023,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5088,11 +5088,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2">
         <v>339</v>
@@ -5102,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5185,7 +5185,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5199,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5208,7 +5208,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
@@ -5221,7 +5221,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7378,11 +7378,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9389,7 +9389,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9485,7 +9485,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>207</v>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9581,7 +9581,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9678,11 +9678,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2">
         <v>764</v>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9775,7 +9775,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9872,7 +9872,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11677,7 +11677,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11773,7 +11773,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>106</v>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11869,7 +11869,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11966,11 +11966,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2">
         <v>348</v>
@@ -11997,7 +11997,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12063,7 +12063,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12160,7 +12160,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12222,7 +12222,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -14015,7 +14015,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>107</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14280,11 +14280,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14520,7 +14520,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -16343,7 +16343,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16608,11 +16608,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633333333</v>
+        <v>44387.766064815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16786,7 +16786,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16878,7 +16878,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
